--- a/appendix_2.xlsx
+++ b/appendix_2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="121">
   <si>
     <t>способ арти-куляции</t>
   </si>
@@ -838,46 +838,40 @@
     <t>иллюстрация наиболее примечательных адаптаций</t>
   </si>
   <si>
-    <t>Вапор &gt; 瓦甫尔(油) "wǎfǔ'ěr(yóu)" //</t>
-  </si>
-  <si>
-    <t>лезгинка &gt; 列兹金卡 "lièzījīnkǎ" //</t>
-  </si>
-  <si>
-    <t>кисель &gt; 吉协力 "jíxiélì" //</t>
-  </si>
-  <si>
-    <t>господин &gt; 戈斯帕京 "gēsīpàjīng" //</t>
-  </si>
-  <si>
-    <t>фут &gt; 呼多 "hūduō" //</t>
-  </si>
-  <si>
-    <t>оровела &gt; 奥罗悲拉 "àoluóběilā" //</t>
-  </si>
-  <si>
-    <t>нирезист &gt; 尼莱吉斯特 "níláijísītè" //</t>
-  </si>
-  <si>
-    <t>союз &gt; 沙油子 "shāyóuzhǐ" //</t>
-  </si>
-  <si>
-    <t>Жиздра &gt; 日兹德拉 "rìzīdélā" //</t>
-  </si>
-  <si>
-    <t>хорошо &gt; 哈拉嗦 "hālāsuó" //</t>
-  </si>
-  <si>
-    <t>целлотекс &gt; 赛珞切克斯 "sàiluòqièkèsī" //</t>
-  </si>
-  <si>
-    <t>семинар &gt; 习明纳尔 "xímíngnà'ěr" //</t>
-  </si>
-  <si>
-    <t>комсомол &gt; 康沙模尔 "kāngshāmó'ěr" //</t>
-  </si>
-  <si>
-    <t>сударь &gt; 苏达利 "sūdálì" //</t>
+    <t>кисель &gt; 吉协力 “jíxiélì” /tɕi2ɕe2lʲi4/</t>
+  </si>
+  <si>
+    <t>союз &gt; 沙油子 “shāyóuzhǐ” /ʂaː1jəu2tsz̩3/</t>
+  </si>
+  <si>
+    <t>комсомол &gt; 康沙模尔 "kāngshāmó'ěr" /kʰaŋ1ʂaː1mʷoː2ɻ/</t>
+  </si>
+  <si>
+    <t>семинар &gt; 习明纳尔 "xímíngnà'ěr" /ɕiː2mʲiŋ2na4ɚ3/</t>
+  </si>
+  <si>
+    <t>сударь &gt; 苏达利 "sūdálì" /sʷuː1ta2lʲi4/</t>
+  </si>
+  <si>
+    <t>Вапор &gt; 瓦甫尔(油) "wǎfǔ'ěr(yóu)" /waː3fuː3ɚ3(jəu2)/</t>
+  </si>
+  <si>
+    <t>господин &gt; 戈斯帕京 "gēsīpàjīng" /kɤː1sz̩ː1pʰa4tɕəŋ1/</t>
+  </si>
+  <si>
+    <t>оровела &gt; 奥罗悲拉 "àoluóběilā" /au4lʷoː2pəi1laː1/</t>
+  </si>
+  <si>
+    <t>фут &gt; 呼多 "hūduō" /xʷuː1tʷoː1/</t>
+  </si>
+  <si>
+    <t>нирезист &gt; 尼莱吉斯特 "níláijísītè" /nʲiː2lai2tɕiː2sz̩ː1tʰɤ4/</t>
+  </si>
+  <si>
+    <t>Жиздра &gt; 日兹德拉 "rìzīdélā" /ʐʐ̩4tsz̩ː1tɤ2laː1/</t>
+  </si>
+  <si>
+    <t>целлотекс &gt; 赛珞切克斯 "sàiluòqièkèsī" /sai4lʷo4tɕʰe4kʰɤ4sz̩ː1/</t>
   </si>
 </sst>
 </file>
@@ -1041,24 +1035,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,6 +1061,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,15 +1397,15 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1429,15 +1423,15 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1453,15 +1447,15 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>109</v>
+      <c r="H3" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1477,15 +1471,15 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>111</v>
+      <c r="H4" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1501,15 +1495,15 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>110</v>
+      <c r="H5" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1527,15 +1521,15 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>112</v>
+      <c r="H6" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1551,15 +1545,15 @@
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1577,15 +1571,15 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="H8" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1601,15 +1595,15 @@
       <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>113</v>
+      <c r="H9" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1625,15 +1619,15 @@
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>115</v>
+      <c r="H10" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1649,15 +1643,15 @@
       <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>116</v>
+      <c r="H11" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
@@ -1673,15 +1667,15 @@
       <c r="F12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>117</v>
+      <c r="H12" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
@@ -1697,15 +1691,15 @@
       <c r="F13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>118</v>
+      <c r="H13" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
@@ -1721,15 +1715,15 @@
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1747,15 +1741,15 @@
       <c r="F15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>119</v>
+      <c r="H15" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
@@ -1771,15 +1765,15 @@
       <c r="F16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1797,15 +1791,15 @@
       <c r="F17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>121</v>
+      <c r="H17" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
@@ -1821,15 +1815,15 @@
       <c r="F18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>120</v>
+      <c r="H18" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1847,15 +1841,15 @@
       <c r="F19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>122</v>
+      <c r="H19" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="3" t="s">
         <v>98</v>
       </c>
@@ -1871,10 +1865,10 @@
       <c r="F20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="14" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1897,21 +1891,21 @@
       <c r="F21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="9" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
